--- a/FlOpEDT/configuration/xls/empty_database_file.xlsx
+++ b/FlOpEDT/configuration/xls/empty_database_file.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Paramètres" sheetId="1" state="visible" r:id="rId2"/>
@@ -316,10 +316,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="HH:MM"/>
+    <numFmt numFmtId="165" formatCode="hh:mm"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -367,17 +367,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="15"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -477,7 +466,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -510,11 +499,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -526,38 +511,38 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -590,7 +575,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -656,13 +641,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -728,28 +713,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="1" sqref="39:42 A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -889,7 +869,7 @@
       <c r="F14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="3"/>
@@ -897,7 +877,7 @@
       <c r="F15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="3"/>
@@ -905,7 +885,7 @@
       <c r="F16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="3"/>
@@ -948,22 +928,22 @@
     <mergeCell ref="D12:F12"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D8:J8" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D8:J8" type="list">
       <formula1>"X"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A16" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A16" type="list">
       <formula1>"Visio,No Visio"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A17" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A17" type="list">
       <formula1>"Educatif,Coop. (Poste),Coop. (Salarié)"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
@@ -972,44 +952,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="topLeft" activeCell="A23" activeCellId="1" sqref="39:42 A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="17.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="9.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="30.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="17.83"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="10" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="9.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="30.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="17.83"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="9" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+    <row r="2" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+    <row r="3" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11"/>
+    <row r="4" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
@@ -1032,183 +1012,183 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E26" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E26" type="list">
       <formula1>"Permanent,Vacataire"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
@@ -1217,323 +1197,323 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="1" sqref="39:42 A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="21.58"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="15" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="15" width="12.83"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="15" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="21.58"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="14" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="14" width="12.83"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="14" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
+    <row r="1" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="12"/>
-    </row>
-    <row r="2" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="12"/>
-    </row>
-    <row r="3" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16"/>
-      <c r="B3" s="12"/>
-    </row>
-    <row r="4" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="B2" s="11"/>
+    </row>
+    <row r="3" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="15"/>
+      <c r="B3" s="11"/>
+    </row>
+    <row r="4" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="12"/>
-    </row>
-    <row r="5" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="12"/>
-    </row>
-    <row r="6" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-    </row>
-    <row r="7" s="19" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="s">
+      <c r="B5" s="11"/>
+    </row>
+    <row r="6" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+    </row>
+    <row r="7" s="18" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="20"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-    </row>
-    <row r="20" s="24" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18" t="s">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+    </row>
+    <row r="20" s="23" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1542,7 +1522,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
@@ -1551,40 +1531,39 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ72"/>
+  <dimension ref="A1:AMJ76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H47" activeCellId="0" sqref="H47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="39:42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="16.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="29.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="11.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="5" style="10" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="10" min="10" style="10" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="11" style="10" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="16.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="29.5"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="11.64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="5" style="9" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="10" min="10" style="9" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="11" style="9" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+    <row r="1" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="25"/>
       <c r="AMH1" s="0"/>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28"/>
-      <c r="B2" s="26"/>
+    <row r="2" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="27"/>
+      <c r="B2" s="25"/>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
@@ -1605,42 +1584,42 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="29"/>
+      <c r="B13" s="28"/>
     </row>
     <row r="15" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
@@ -1655,47 +1634,47 @@
       <c r="B16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="24" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1722,512 +1701,536 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="30"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="29"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="30"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="29"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="30"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="29"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="30"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="29"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="30"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="29"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="30"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="29"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="30"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="29"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="30"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="29"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="30"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="29"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="30"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="29"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="30"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="29"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="30"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="29"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="30"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="29"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="30"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="29"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="30"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="29"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="30"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="29"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="30"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="29"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="30"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="29"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="29"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="29"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="29"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="29"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="25" t="s">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="31" t="s">
+    <row r="57" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="31"/>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="31"/>
-      <c r="P53" s="31"/>
-      <c r="Q53" s="31"/>
-    </row>
-    <row r="54" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5" t="s">
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="30"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="30"/>
+    </row>
+    <row r="58" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B58" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="32" t="s">
+      <c r="C58" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32" t="s">
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="L54" s="32"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="32"/>
-      <c r="O54" s="32"/>
-      <c r="P54" s="32"/>
-      <c r="Q54" s="32"/>
-    </row>
-    <row r="55" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="13"/>
-      <c r="Q55" s="30"/>
-    </row>
-    <row r="56" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="13"/>
-      <c r="P56" s="13"/>
-      <c r="Q56" s="30"/>
-    </row>
-    <row r="57" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13"/>
-      <c r="Q57" s="30"/>
-    </row>
-    <row r="58" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13"/>
-      <c r="Q58" s="30"/>
-    </row>
-    <row r="59" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="13"/>
-      <c r="P59" s="13"/>
-      <c r="Q59" s="30"/>
-    </row>
-    <row r="60" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="13"/>
-      <c r="O60" s="13"/>
-      <c r="P60" s="13"/>
-      <c r="Q60" s="30"/>
-    </row>
-    <row r="61" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="13"/>
-      <c r="Q61" s="30"/>
-    </row>
-    <row r="62" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="13"/>
-      <c r="O62" s="13"/>
-      <c r="P62" s="13"/>
-      <c r="Q62" s="30"/>
-    </row>
-    <row r="63" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13"/>
-      <c r="Q63" s="30"/>
-    </row>
-    <row r="64" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="13"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="13"/>
-      <c r="O64" s="13"/>
-      <c r="P64" s="13"/>
-      <c r="Q64" s="30"/>
-    </row>
-    <row r="65" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="13"/>
-      <c r="O65" s="13"/>
-      <c r="P65" s="13"/>
-      <c r="Q65" s="30"/>
-    </row>
-    <row r="66" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="13"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="13"/>
-      <c r="O66" s="13"/>
-      <c r="P66" s="13"/>
-      <c r="Q66" s="30"/>
-    </row>
-    <row r="67" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="13"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="13"/>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="13"/>
-      <c r="O67" s="13"/>
-      <c r="P67" s="13"/>
-      <c r="Q67" s="30"/>
-    </row>
-    <row r="68" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="13"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="13"/>
-      <c r="L68" s="13"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="13"/>
-      <c r="O68" s="13"/>
-      <c r="P68" s="13"/>
-      <c r="Q68" s="30"/>
-    </row>
-    <row r="69" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="13"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="13"/>
-      <c r="L69" s="13"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="13"/>
-      <c r="O69" s="13"/>
-      <c r="P69" s="13"/>
-      <c r="Q69" s="30"/>
-    </row>
-    <row r="70" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="13"/>
-      <c r="L70" s="13"/>
-      <c r="M70" s="13"/>
-      <c r="N70" s="13"/>
-      <c r="O70" s="13"/>
-      <c r="P70" s="13"/>
-      <c r="Q70" s="30"/>
-    </row>
-    <row r="71" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="13"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
-      <c r="J71" s="13"/>
-      <c r="K71" s="13"/>
-      <c r="L71" s="13"/>
-      <c r="M71" s="13"/>
-      <c r="N71" s="13"/>
-      <c r="O71" s="13"/>
-      <c r="P71" s="13"/>
-      <c r="Q71" s="30"/>
-    </row>
-    <row r="72" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="13"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="13"/>
-      <c r="O72" s="13"/>
-      <c r="P72" s="13"/>
-      <c r="Q72" s="30"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="31"/>
+    </row>
+    <row r="59" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="29"/>
+    </row>
+    <row r="60" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="29"/>
+    </row>
+    <row r="61" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="29"/>
+    </row>
+    <row r="62" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="29"/>
+    </row>
+    <row r="63" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="29"/>
+    </row>
+    <row r="64" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="29"/>
+    </row>
+    <row r="65" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="29"/>
+    </row>
+    <row r="66" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="12"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="29"/>
+    </row>
+    <row r="67" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="12"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="29"/>
+    </row>
+    <row r="68" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="12"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="29"/>
+    </row>
+    <row r="69" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="29"/>
+    </row>
+    <row r="70" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="29"/>
+    </row>
+    <row r="71" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="29"/>
+    </row>
+    <row r="72" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="29"/>
+    </row>
+    <row r="73" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="12"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="29"/>
+    </row>
+    <row r="74" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="12"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="29"/>
+    </row>
+    <row r="75" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="12"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="29"/>
+    </row>
+    <row r="76" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="12"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2240,35 +2243,35 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A53:Q53"/>
-    <mergeCell ref="C54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A57:Q57"/>
+    <mergeCell ref="C58:I58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B31:B44 B55:B68" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B31:B48 B59:B72" type="list">
       <formula1>Groupes!$A$5:$A$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C31:C44" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C31:C48" type="list">
       <formula1>Groupes!$A$17:$A$21</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D31:D48" type="list">
-      <formula1>Groupes!$A$31:$A$48</formula1>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D31:D52" type="list">
+      <formula1>Groupes!$A$31:$A$52</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C55:J72" type="list">
-      <formula1>Groupes!$A$31:$A$48</formula1>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C59:J76" type="list">
+      <formula1>Groupes!$A$31:$A$52</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K55:Q72" type="list">
-      <formula1>Groupes!$A$55:$A$72</formula1>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K59:Q76" type="list">
+      <formula1>Groupes!$A$59:$A$76</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
@@ -2277,55 +2280,55 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AMJ36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="1" sqref="39:42 G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="18.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="10" width="17.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="52.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="17.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="10" width="20.6"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="10" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="18.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="9" width="17.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="52.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="17.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="20.6"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="9" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="25"/>
+      <c r="B5" s="24"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>50</v>
       </c>
       <c r="AMG6" s="0"/>
@@ -2334,12 +2337,12 @@
       <c r="AMJ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="25"/>
-    </row>
-    <row r="9" s="33" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="24"/>
+    </row>
+    <row r="9" s="32" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -2363,283 +2366,283 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
       <c r="J10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12" t="s">
         <v>70</v>
       </c>
       <c r="J11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
       <c r="J12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
       <c r="J13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
       <c r="J14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
       <c r="J15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
       <c r="J16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
       <c r="J17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
       <c r="J18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
       <c r="J19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
       <c r="J20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F10:F36" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F10:F36" type="list">
       <formula1>Paramètres!$D$14:$D$23</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E10:E36" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E10:E36" type="list">
       <formula1>Groupes!$A$5:$A$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G10:G12 G14:G36" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G10:G12 G14:G36" type="list">
       <formula1>Intervenants!$A$6:$A$500</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G13" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G13" type="list">
       <formula1>Intervenants!$A$6:$A$500</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
@@ -2648,234 +2651,234 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="39:42 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="9.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="19.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="34" width="10.05"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="34" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="33" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="19.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="33" width="10.05"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="33" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="36" t="n">
+      <c r="B5" s="35" t="n">
         <v>60</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="35" t="n">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="34" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="D6" s="35" t="n">
+      <c r="D6" s="34" t="n">
         <v>0.375</v>
       </c>
-      <c r="E6" s="35" t="n">
+      <c r="E6" s="34" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="F6" s="35" t="n">
+      <c r="F6" s="34" t="n">
         <v>0.458333333333333</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="37" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="37" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" s="41" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="39" t="s">
+    <row r="10" s="40" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="38" t="s">
         <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="42"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="42"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="42"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="42"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="42"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="42"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2889,14 +2892,14 @@
     <mergeCell ref="A22:B22"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C11:I11 C13:I13 C15:I15 C17:I17 C19:I19 C21:I21" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C11:I11 C13:I13 C15:I15 C17:I17 C19:I19 C21:I21" type="list">
       <formula1>Groupes!$A$17:$B$22</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>

--- a/FlOpEDT/configuration/xls/empty_database_file.xlsx
+++ b/FlOpEDT/configuration/xls/empty_database_file.xlsx
@@ -720,10 +720,10 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="1" sqref="39:42 A22"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="1" sqref="38:43 A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.16"/>
@@ -959,7 +959,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="1" sqref="39:42 A23"/>
+      <selection pane="topLeft" activeCell="A23" activeCellId="1" sqref="38:43 A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1204,7 +1204,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="1" sqref="39:42 A21"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="1" sqref="38:43 A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1535,10 +1535,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ76"/>
+  <dimension ref="A1:AMJ82"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="39:42"/>
+      <selection pane="topLeft" activeCell="A43" activeCellId="0" sqref="38:43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1832,177 +1832,99 @@
       <c r="C52" s="12"/>
       <c r="D52" s="29"/>
     </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="29"/>
+    </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="29"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="29"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="29"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="29"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="29"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="24" t="s">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="30" t="s">
+    <row r="63" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="30"/>
-      <c r="N57" s="30"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="30"/>
-    </row>
-    <row r="58" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5" t="s">
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="30"/>
+      <c r="P63" s="30"/>
+      <c r="Q63" s="30"/>
+    </row>
+    <row r="64" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B64" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="31" t="s">
+      <c r="C64" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="31" t="s">
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="L58" s="31"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="31"/>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="31"/>
-    </row>
-    <row r="59" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
-      <c r="O59" s="12"/>
-      <c r="P59" s="12"/>
-      <c r="Q59" s="29"/>
-    </row>
-    <row r="60" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="12"/>
-      <c r="P60" s="12"/>
-      <c r="Q60" s="29"/>
-    </row>
-    <row r="61" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="12"/>
-      <c r="P61" s="12"/>
-      <c r="Q61" s="29"/>
-    </row>
-    <row r="62" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="12"/>
-      <c r="P62" s="12"/>
-      <c r="Q62" s="29"/>
-    </row>
-    <row r="63" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
-      <c r="O63" s="12"/>
-      <c r="P63" s="12"/>
-      <c r="Q63" s="29"/>
-    </row>
-    <row r="64" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="12"/>
-      <c r="P64" s="12"/>
-      <c r="Q64" s="29"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="31"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="31"/>
+      <c r="P64" s="31"/>
+      <c r="Q64" s="31"/>
     </row>
     <row r="65" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="12"/>
@@ -2232,6 +2154,120 @@
       <c r="P76" s="12"/>
       <c r="Q76" s="29"/>
     </row>
+    <row r="77" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="12"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="29"/>
+    </row>
+    <row r="78" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="12"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="29"/>
+    </row>
+    <row r="79" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="12"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="29"/>
+    </row>
+    <row r="80" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="12"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="29"/>
+    </row>
+    <row r="81" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="12"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="12"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="29"/>
+    </row>
+    <row r="82" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="12"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
+      <c r="O82" s="12"/>
+      <c r="P82" s="12"/>
+      <c r="Q82" s="29"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A3:B3"/>
@@ -2243,29 +2279,29 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A57:Q57"/>
-    <mergeCell ref="C58:I58"/>
-    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="A63:Q63"/>
+    <mergeCell ref="C64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B31:B48 B59:B72" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B31:B54 B65:B78" type="list">
       <formula1>Groupes!$A$5:$A$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C31:C48" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C31:C54" type="list">
       <formula1>Groupes!$A$17:$A$21</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D31:D52" type="list">
-      <formula1>Groupes!$A$31:$A$52</formula1>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D31:D58" type="list">
+      <formula1>Groupes!$A$31:$A$58</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C59:J76" type="list">
-      <formula1>Groupes!$A$31:$A$52</formula1>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C65:J82" type="list">
+      <formula1>Groupes!$A$31:$A$58</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K59:Q76" type="list">
-      <formula1>Groupes!$A$59:$A$76</formula1>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K65:Q82" type="list">
+      <formula1>Groupes!$A$65:$A$82</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -2287,7 +2323,7 @@
   <dimension ref="A1:AMJ36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="1" sqref="39:42 G10"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="1" sqref="38:43 G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2658,7 +2694,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="39:42 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="38:43 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
